--- a/summary_results.xlsx
+++ b/summary_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arin1\Seminar_Smart_Grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF1DBFA-E901-4D55-8532-B374F225A4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37501C8E-B6E0-416C-8E4B-6AEED2C6640B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{49C98ECD-8B69-48EA-BBD1-21F56BB1B7A8}"/>
   </bookViews>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE240B40-D65C-4F26-972A-D497F6AB6AFC}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +713,7 @@
       <c r="G3" s="10">
         <v>84.343932762414298</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -754,7 +754,7 @@
       <c r="G4" s="10">
         <v>67551.665272794504</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="9">
@@ -791,25 +791,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="9">
-        <v>-10320.554820845</v>
+        <v>-7566.8293587927601</v>
       </c>
       <c r="C5" s="10">
-        <v>-90397739.675781697</v>
+        <v>-66277858.353665702</v>
       </c>
       <c r="D5" s="11">
-        <v>7666.7577553616402</v>
+        <v>5700.0904574079595</v>
       </c>
       <c r="E5" s="9">
-        <v>-11865.7071703779</v>
+        <v>-125323.71066736701</v>
       </c>
       <c r="F5" s="10">
-        <v>-103931729.10534</v>
+        <v>-1097710381.7354701</v>
       </c>
       <c r="G5" s="10">
-        <v>7040.1855472829302</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>12</v>
+        <v>96787.127208704507</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>13</v>
@@ -832,25 +832,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="9">
-        <v>-1135.3423404924499</v>
+        <v>-11565.605255631301</v>
       </c>
       <c r="C6" s="10">
-        <v>-9944463.5603734404</v>
+        <v>-101303136.434074</v>
       </c>
       <c r="D6" s="11">
-        <v>823.81431838877097</v>
+        <v>8533.4932281265992</v>
       </c>
       <c r="E6" s="9">
-        <v>-1144.7810272547399</v>
+        <v>-192423.05299983901</v>
       </c>
       <c r="F6" s="10">
-        <v>-10027137.0177243</v>
+        <v>-1685433521.22559</v>
       </c>
       <c r="G6" s="10">
-        <v>850.31888156993398</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
+        <v>145016.20293895699</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>13</v>
@@ -873,24 +873,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="9">
-        <v>-5359.2367808397303</v>
+        <v>-916.88433469376901</v>
       </c>
       <c r="C7" s="10">
-        <v>-46941554.963375203</v>
+        <v>-8030989.8875827203</v>
       </c>
       <c r="D7" s="11">
-        <v>4960.3094879567698</v>
+        <v>914.954878515053</v>
       </c>
       <c r="E7" s="9">
-        <v>-5869.8207352756399</v>
+        <v>-927.80027345631402</v>
       </c>
       <c r="F7" s="10">
-        <v>-51413759.8202793</v>
+        <v>-8126602.5952038504</v>
       </c>
       <c r="G7" s="10">
-        <v>4849.6313894171999</v>
-      </c>
-      <c r="H7" s="11" t="s">
+        <v>916.91311084654706</v>
+      </c>
+      <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -914,25 +914,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="9">
-        <v>-1278.9731091977701</v>
+        <v>-5607.4808689271104</v>
       </c>
       <c r="C8" s="10">
-        <v>-11202525.463463301</v>
+        <v>-49115924.930932499</v>
       </c>
       <c r="D8" s="11">
-        <v>592.51268771636603</v>
+        <v>3619.4328428063</v>
       </c>
       <c r="E8" s="9">
-        <v>-1278.9731091977701</v>
+        <v>-93154.894322847103</v>
       </c>
       <c r="F8" s="10">
-        <v>-11202525.463463301</v>
+        <v>-815943719.37381804</v>
       </c>
       <c r="G8" s="10">
-        <v>592.51268771636603</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>12</v>
+        <v>61576.2040489059</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>13</v>
@@ -955,24 +955,24 @@
         <v>6</v>
       </c>
       <c r="B9" s="9">
-        <v>-3437.6151067097699</v>
+        <v>-3334.2735752694698</v>
       </c>
       <c r="C9" s="10">
-        <v>-30110070.719670899</v>
+        <v>-29204902.2457853</v>
       </c>
       <c r="D9" s="11">
-        <v>2631.8210742599299</v>
+        <v>1384.9892758170399</v>
       </c>
       <c r="E9" s="9">
-        <v>-3446.4269305754801</v>
+        <v>-3339.8652717515301</v>
       </c>
       <c r="F9" s="10">
-        <v>-30187253.4849107</v>
+        <v>-29253879.915271599</v>
       </c>
       <c r="G9" s="10">
-        <v>2671.8614208314302</v>
-      </c>
-      <c r="H9" s="11" t="s">
+        <v>1406.7174185055401</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -996,24 +996,24 @@
         <v>7</v>
       </c>
       <c r="B10" s="9">
-        <v>-3344.4050633445499</v>
+        <v>-1328.2046026585101</v>
       </c>
       <c r="C10" s="10">
-        <v>-29293643.949834902</v>
+        <v>-11633744.114685901</v>
       </c>
       <c r="D10" s="11">
-        <v>2216.4092019303998</v>
+        <v>1129.8939972078999</v>
       </c>
       <c r="E10" s="9">
-        <v>-55586.482163838002</v>
+        <v>-22015.406805352799</v>
       </c>
       <c r="F10" s="10">
-        <v>-486881997.27305698</v>
+        <v>-192832948.208085</v>
       </c>
       <c r="G10" s="10">
-        <v>37410.318020532497</v>
-      </c>
-      <c r="H10" s="11" t="s">
+        <v>19365.864230244199</v>
+      </c>
+      <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -1037,25 +1037,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="9">
-        <v>-3027.7049910027599</v>
+        <v>-7300.9950191246999</v>
       </c>
       <c r="C11" s="10">
-        <v>-26519668.0161932</v>
+        <v>-63949415.372513302</v>
       </c>
       <c r="D11" s="11">
-        <v>3296.5636866432401</v>
+        <v>6199.9216759607398</v>
       </c>
       <c r="E11" s="9">
-        <v>-3192.6818578717898</v>
+        <v>-10928.409842047</v>
       </c>
       <c r="F11" s="10">
-        <v>-27964700.393098999</v>
+        <v>-95721941.806490198</v>
       </c>
       <c r="G11" s="10">
-        <v>3868.9512085183201</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
+        <v>28107.347477094299</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
       </c>
       <c r="I11" s="9">
         <v>-12371.602217813201</v>
@@ -1090,25 +1090,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="9">
-        <v>-5983.0930051090199</v>
+        <v>-4258.4412472405502</v>
       </c>
       <c r="C12" s="10">
-        <v>-52405911.631749898</v>
+        <v>-37299686.884580001</v>
       </c>
       <c r="D12" s="11">
-        <v>3840.1192987515601</v>
+        <v>4315.8193066751901</v>
       </c>
       <c r="E12" s="9">
-        <v>-99590.839460332296</v>
+        <v>-35759.5878092087</v>
       </c>
       <c r="F12" s="10">
-        <v>-872316162.83305097</v>
+        <v>-313218229.62085903</v>
       </c>
       <c r="G12" s="10">
-        <v>64810.546280300303</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>15</v>
+        <v>114764.646064816</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
       </c>
       <c r="I12" s="9">
         <v>-18010.965569673801</v>
@@ -1143,24 +1143,24 @@
         <v>10</v>
       </c>
       <c r="B13" s="9">
-        <v>-2310.5367033336101</v>
+        <v>-10320.554820845</v>
       </c>
       <c r="C13" s="10">
-        <v>-20237990.984499101</v>
+        <v>-90397739.675781697</v>
       </c>
       <c r="D13" s="11">
-        <v>961.07396597569004</v>
+        <v>7666.7577553616402</v>
       </c>
       <c r="E13" s="9">
-        <v>-2311.3281231692699</v>
+        <v>-11865.7071703779</v>
       </c>
       <c r="F13" s="10">
-        <v>-20244923.0308396</v>
+        <v>-103931729.10534</v>
       </c>
       <c r="G13" s="10">
-        <v>961.00302068135704</v>
-      </c>
-      <c r="H13" s="11" t="s">
+        <v>7040.1855472829302</v>
+      </c>
+      <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="9">
@@ -1196,25 +1196,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="9">
-        <v>-245.33923652567901</v>
+        <v>-1135.3423404924499</v>
       </c>
       <c r="C14" s="10">
-        <v>-2148926.37272842</v>
+        <v>-9944463.5603734404</v>
       </c>
       <c r="D14" s="11">
-        <v>178.929809125708</v>
+        <v>823.81431838877097</v>
       </c>
       <c r="E14" s="9">
-        <v>-4085.3759315213802</v>
+        <v>-1144.7810272547399</v>
       </c>
       <c r="F14" s="10">
-        <v>-35783807.784195803</v>
+        <v>-10027137.0177243</v>
       </c>
       <c r="G14" s="10">
-        <v>2998.6308263414198</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>15</v>
+        <v>850.31888156993398</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>13</v>
@@ -1237,25 +1237,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="9">
-        <v>-7566.8293587927601</v>
+        <v>-5359.2367808397303</v>
       </c>
       <c r="C15" s="10">
-        <v>-66277858.353665702</v>
+        <v>-46941554.963375203</v>
       </c>
       <c r="D15" s="11">
-        <v>5700.0904574079595</v>
+        <v>4960.3094879567698</v>
       </c>
       <c r="E15" s="9">
-        <v>-125323.71066736701</v>
+        <v>-5869.8207352756399</v>
       </c>
       <c r="F15" s="10">
-        <v>-1097710381.7354701</v>
+        <v>-51413759.8202793</v>
       </c>
       <c r="G15" s="10">
-        <v>96787.127208704507</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>15</v>
+        <v>4849.6313894171999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>13</v>
@@ -1278,25 +1278,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="9">
-        <v>-6399.8405082705904</v>
+        <v>-1278.9731091977701</v>
       </c>
       <c r="C16" s="10">
-        <v>-56056203.011942104</v>
+        <v>-11202525.463463301</v>
       </c>
       <c r="D16" s="11">
-        <v>6826.9432060271902</v>
+        <v>592.51268771636603</v>
       </c>
       <c r="E16" s="9">
-        <v>-104973.220183053</v>
+        <v>-1278.9731091977701</v>
       </c>
       <c r="F16" s="10">
-        <v>-919460435.58336306</v>
+        <v>-11202525.463463301</v>
       </c>
       <c r="G16" s="10">
-        <v>117111.84666852999</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>15</v>
+        <v>592.51268771636603</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
       </c>
       <c r="I16" s="9">
         <v>-5842.2849051419098</v>
@@ -1331,25 +1331,25 @@
         <v>14</v>
       </c>
       <c r="B17" s="9">
-        <v>-20756.599103901601</v>
+        <v>-3437.6151067097699</v>
       </c>
       <c r="C17" s="10">
-        <v>-181807051.551074</v>
+        <v>-30110070.719670899</v>
       </c>
       <c r="D17" s="11">
-        <v>16542.819899398899</v>
+        <v>2631.8210742599299</v>
       </c>
       <c r="E17" s="9">
-        <v>-343517.00588657701</v>
+        <v>-3446.4269305754801</v>
       </c>
       <c r="F17" s="10">
-        <v>-3008865454.5605302</v>
+        <v>-30187253.4849107</v>
       </c>
       <c r="G17" s="10">
-        <v>275467.620031339</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>15</v>
+        <v>2671.8614208314302</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>13</v>
@@ -1372,25 +1372,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="9">
-        <v>-5019.4380207087097</v>
+        <v>-3344.4050633445499</v>
       </c>
       <c r="C18" s="10">
-        <v>-43965257.623387598</v>
+        <v>-29293643.949834902</v>
       </c>
       <c r="D18" s="11">
-        <v>2490.72150004982</v>
+        <v>2216.4092019303998</v>
       </c>
       <c r="E18" s="9">
-        <v>-5039.7101280836096</v>
+        <v>-55586.482163838002</v>
       </c>
       <c r="F18" s="10">
-        <v>-44142821.011884399</v>
+        <v>-486881997.27305698</v>
       </c>
       <c r="G18" s="10">
-        <v>2561.9235386310702</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>12</v>
+        <v>37410.318020532497</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>13</v>
@@ -1413,25 +1413,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="9">
-        <v>-1965.95162464948</v>
+        <v>-3027.7049910027599</v>
       </c>
       <c r="C19" s="10">
-        <v>-17219770.280304801</v>
+        <v>-26519668.0161932</v>
       </c>
       <c r="D19" s="11">
-        <v>1139.4154695529</v>
+        <v>3296.5636866432401</v>
       </c>
       <c r="E19" s="9">
-        <v>-32707.497424589201</v>
+        <v>-3192.6818578717898</v>
       </c>
       <c r="F19" s="10">
-        <v>-286484969.94197702</v>
+        <v>-27964700.393098999</v>
       </c>
       <c r="G19" s="10">
-        <v>19191.480118617801</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>15</v>
+        <v>3868.9512085183201</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>13</v>
@@ -1454,25 +1454,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="9">
-        <v>-1987.17138136725</v>
+        <v>-5983.0930051090199</v>
       </c>
       <c r="C20" s="10">
-        <v>-17405634.129395701</v>
+        <v>-52405911.631749898</v>
       </c>
       <c r="D20" s="11">
-        <v>1648.98168750325</v>
+        <v>3840.1192987515601</v>
       </c>
       <c r="E20" s="9">
-        <v>-16939.598846107201</v>
+        <v>-99590.839460332296</v>
       </c>
       <c r="F20" s="10">
-        <v>-148373946.293053</v>
+        <v>-872316162.83305097</v>
       </c>
       <c r="G20" s="10">
-        <v>55552.2174528162</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>14</v>
+        <v>64810.546280300303</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>13</v>
@@ -1495,25 +1495,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="9">
-        <v>-11565.605255631301</v>
+        <v>-2310.5367033336101</v>
       </c>
       <c r="C21" s="10">
-        <v>-101303136.434074</v>
+        <v>-20237990.984499101</v>
       </c>
       <c r="D21" s="11">
-        <v>8533.4932281265992</v>
+        <v>961.07396597569004</v>
       </c>
       <c r="E21" s="9">
-        <v>-192423.05299983901</v>
+        <v>-2311.3281231692699</v>
       </c>
       <c r="F21" s="10">
-        <v>-1685433521.22559</v>
+        <v>-20244923.0308396</v>
       </c>
       <c r="G21" s="10">
-        <v>145016.20293895699</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>15</v>
+        <v>961.00302068135704</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
       </c>
       <c r="I21" s="9">
         <v>-10585.4301193828</v>
@@ -1548,25 +1548,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="9">
-        <v>-916.88433469376901</v>
+        <v>-245.33923652567901</v>
       </c>
       <c r="C22" s="10">
-        <v>-8030989.8875827203</v>
+        <v>-2148926.37272842</v>
       </c>
       <c r="D22" s="11">
-        <v>914.954878515053</v>
+        <v>178.929809125708</v>
       </c>
       <c r="E22" s="9">
-        <v>-927.80027345631402</v>
+        <v>-4085.3759315213802</v>
       </c>
       <c r="F22" s="10">
-        <v>-8126602.5952038504</v>
+        <v>-35783807.784195803</v>
       </c>
       <c r="G22" s="10">
-        <v>916.91311084654706</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>12</v>
+        <v>2998.6308263414198</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>13</v>
@@ -1589,24 +1589,24 @@
         <v>20</v>
       </c>
       <c r="B23" s="9">
-        <v>-5607.4808689271104</v>
+        <v>-6399.8405082705904</v>
       </c>
       <c r="C23" s="10">
-        <v>-49115924.930932499</v>
+        <v>-56056203.011942104</v>
       </c>
       <c r="D23" s="11">
-        <v>3619.4328428063</v>
+        <v>6826.9432060271902</v>
       </c>
       <c r="E23" s="9">
-        <v>-93154.894322847103</v>
+        <v>-104973.220183053</v>
       </c>
       <c r="F23" s="10">
-        <v>-815943719.37381804</v>
+        <v>-919460435.58336306</v>
       </c>
       <c r="G23" s="10">
-        <v>61576.2040489059</v>
-      </c>
-      <c r="H23" s="11" t="s">
+        <v>117111.84666852999</v>
+      </c>
+      <c r="H23" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -1630,25 +1630,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="9">
-        <v>-3334.2735752694698</v>
+        <v>-20756.599103901601</v>
       </c>
       <c r="C24" s="10">
-        <v>-29204902.2457853</v>
+        <v>-181807051.551074</v>
       </c>
       <c r="D24" s="11">
-        <v>1384.9892758170399</v>
+        <v>16542.819899398899</v>
       </c>
       <c r="E24" s="9">
-        <v>-3339.8652717515301</v>
+        <v>-343517.00588657701</v>
       </c>
       <c r="F24" s="10">
-        <v>-29253879.915271599</v>
+        <v>-3008865454.5605302</v>
       </c>
       <c r="G24" s="10">
-        <v>1406.7174185055401</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>12</v>
+        <v>275467.620031339</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>13</v>
@@ -1671,25 +1671,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="9">
-        <v>-1328.2046026585101</v>
+        <v>-5019.4380207087097</v>
       </c>
       <c r="C25" s="10">
-        <v>-11633744.114685901</v>
+        <v>-43965257.623387598</v>
       </c>
       <c r="D25" s="11">
-        <v>1129.8939972078999</v>
+        <v>2490.72150004982</v>
       </c>
       <c r="E25" s="9">
-        <v>-22015.406805352799</v>
+        <v>-5039.7101280836096</v>
       </c>
       <c r="F25" s="10">
-        <v>-192832948.208085</v>
+        <v>-44142821.011884399</v>
       </c>
       <c r="G25" s="10">
-        <v>19365.864230244199</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>15</v>
+        <v>2561.9235386310702</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
       </c>
       <c r="I25" s="9">
         <v>-23874.589628596499</v>
@@ -1724,25 +1724,25 @@
         <v>23</v>
       </c>
       <c r="B26" s="9">
-        <v>-7300.9950191246999</v>
+        <v>-1965.95162464948</v>
       </c>
       <c r="C26" s="10">
-        <v>-63949415.372513302</v>
+        <v>-17219770.280304801</v>
       </c>
       <c r="D26" s="11">
-        <v>6199.9216759607398</v>
+        <v>1139.4154695529</v>
       </c>
       <c r="E26" s="9">
-        <v>-10928.409842047</v>
+        <v>-32707.497424589201</v>
       </c>
       <c r="F26" s="10">
-        <v>-95721941.806490198</v>
+        <v>-286484969.94197702</v>
       </c>
       <c r="G26" s="10">
-        <v>28107.347477094299</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>14</v>
+        <v>19191.480118617801</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>13</v>
@@ -1765,24 +1765,24 @@
         <v>24</v>
       </c>
       <c r="B27" s="9">
-        <v>-4258.4412472405502</v>
+        <v>-1987.17138136725</v>
       </c>
       <c r="C27" s="10">
-        <v>-37299686.884580001</v>
+        <v>-17405634.129395701</v>
       </c>
       <c r="D27" s="11">
-        <v>4315.8193066751901</v>
+        <v>1648.98168750325</v>
       </c>
       <c r="E27" s="9">
-        <v>-35759.5878092087</v>
+        <v>-16939.598846107201</v>
       </c>
       <c r="F27" s="10">
-        <v>-313218229.62085903</v>
+        <v>-148373946.293053</v>
       </c>
       <c r="G27" s="10">
-        <v>114764.646064816</v>
-      </c>
-      <c r="H27" s="11" t="s">
+        <v>55552.2174528162</v>
+      </c>
+      <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="9">
@@ -1818,25 +1818,28 @@
         <v>16</v>
       </c>
       <c r="B28" s="14">
-        <v>-4728.32363197426</v>
+        <f>AVERAGE(B3:B27)</f>
+        <v>-4728.3236319742518</v>
       </c>
       <c r="C28" s="15">
-        <f>AVERAGE(C3:C27)</f>
-        <v>-41415386.692462474</v>
+        <f>SUM(C3:C27)</f>
+        <v>-1035384667.3115618</v>
       </c>
       <c r="D28" s="16">
         <f>AVERAGE(D3:D27)</f>
-        <v>3619.7701767457315</v>
+        <v>3619.7701767457324</v>
       </c>
       <c r="E28" s="14">
-        <v>-47830.460511926998</v>
+        <f>AVERAGE(E3:E27)</f>
+        <v>-47830.460511927005</v>
       </c>
       <c r="F28" s="15">
-        <v>-10473675090.599199</v>
+        <f>SUM(F3:F27)</f>
+        <v>-10473675090.59922</v>
       </c>
       <c r="G28" s="15">
         <f>AVERAGE(G3:G27)</f>
-        <v>45260.643151870267</v>
+        <v>45260.643151870274</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14">
